--- a/data/excample/SingleChoice_SC.xlsx
+++ b/data/excample/SingleChoice_SC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>是否启用</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>中国共产党第一次全国代表大会在哪里召开？</t>
+  </si>
+  <si>
+    <t>"1945年8月15日"</t>
+  </si>
+  <si>
+    <t>"1949年10月1日"</t>
+  </si>
+  <si>
+    <t>"1950年10月1日"</t>
+  </si>
+  <si>
+    <t>"1949年9月21日"</t>
+  </si>
+  <si>
+    <t>"1950年1月1日"</t>
   </si>
   <si>
     <t>中华人民共和国成立的时间是？</t>
@@ -1189,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1371,32 +1386,32 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2">
-        <v>16664</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18172</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18537</v>
-      </c>
-      <c r="E6" s="2">
-        <v>18162</v>
-      </c>
-      <c r="F6" s="2">
-        <v>18264</v>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1404,28 +1419,28 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:26">
@@ -1433,25 +1448,25 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1459,25 +1474,25 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1485,25 +1500,25 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
